--- a/stream-dash/recalls.xlsx
+++ b/stream-dash/recalls.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
   <si>
     <t>str_fundo</t>
   </si>
@@ -37,46 +37,31 @@
     <t>PendRecallD3</t>
   </si>
   <si>
-    <t>KAPITALO K10 PREV MASTER FIM</t>
-  </si>
-  <si>
     <t>KAPITALO KAPPA MASTER FIM</t>
   </si>
   <si>
     <t>KAPITALO ZETA MASTER FIM</t>
   </si>
   <si>
-    <t>SBSP3</t>
-  </si>
-  <si>
-    <t>B3SA3</t>
-  </si>
-  <si>
-    <t>GGBR4</t>
-  </si>
-  <si>
-    <t>GOLL4</t>
-  </si>
-  <si>
-    <t>NTCO3</t>
-  </si>
-  <si>
-    <t>CASH3</t>
+    <t>CMIN3</t>
+  </si>
+  <si>
+    <t>CSNA3</t>
+  </si>
+  <si>
+    <t>TOTS3</t>
+  </si>
+  <si>
+    <t>BHIA3</t>
   </si>
   <si>
     <t>Kapitalo 11.1</t>
   </si>
   <si>
-    <t>Kapitalo 1.0</t>
-  </si>
-  <si>
-    <t>Arbitragem Aluguel</t>
+    <t>MM</t>
   </si>
   <si>
     <t>CashCarry</t>
-  </si>
-  <si>
-    <t>MM</t>
   </si>
   <si>
     <t>Bolsa 2</t>
@@ -437,7 +422,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -474,22 +459,22 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>-181</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>-1910</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -497,22 +482,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>-1410</v>
+        <v>-200</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -523,25 +508,25 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>-60</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>-405</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -552,177 +537,21 @@
         <v>8</v>
       </c>
       <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
         <v>13</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>16</v>
       </c>
-      <c r="E5" t="s">
-        <v>19</v>
-      </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>-20</v>
+        <v>-1010</v>
       </c>
       <c r="H5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>-610</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>-610</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>-210</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>-534</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" t="s">
-        <v>20</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>-110</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" t="s">
-        <v>21</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>-706</v>
-      </c>
-      <c r="H11">
         <v>0</v>
       </c>
     </row>
